--- a/Docs/Diagrams/DailyScrum.xlsx
+++ b/Docs/Diagrams/DailyScrum.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeffreyLau\Documents\want\uni stuff\Final Sem\2018-Capstone-QUT-Foundry\Docs\Diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78307E9A-FE17-4585-9DB8-1DD2D26232A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9439805-FBC4-471F-90A9-2908697431C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{70887669-737F-4565-BCA0-D84AE44B16EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Jeffrey" sheetId="1" r:id="rId1"/>
+    <sheet name="Brayan" sheetId="2" r:id="rId2"/>
+    <sheet name="JefreyTeo" sheetId="3" r:id="rId3"/>
+    <sheet name="Ethan" sheetId="4" r:id="rId4"/>
+    <sheet name="Isuru" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -59,9 +63,6 @@
     <t xml:space="preserve">Research about authentication </t>
   </si>
   <si>
-    <t>Research about JWT</t>
-  </si>
-  <si>
     <t>implement JWT and passport js</t>
   </si>
   <si>
@@ -69,14 +70,85 @@
   </si>
   <si>
     <t>What is jWT? Don’t understand</t>
+  </si>
+  <si>
+    <t>Contact PO for gathering all new member</t>
+  </si>
+  <si>
+    <t>intoduce the project with to all new member</t>
+  </si>
+  <si>
+    <t>lack of communication between group member</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Research technicial resource for group members</t>
+  </si>
+  <si>
+    <t>Hold the meeting, setup environement for all team members</t>
+  </si>
+  <si>
+    <t>Ethan suddenly busy, can't attend the meeting</t>
+  </si>
+  <si>
+    <t>Arrange individual meeting with Ethan, because we didn't attend the meeting</t>
+  </si>
+  <si>
+    <t>Meet client with product owner</t>
+  </si>
+  <si>
+    <t>Client wants to restructure the whole project</t>
+  </si>
+  <si>
+    <t>annoce the current situation with all members, and meeting with PO about what should we do</t>
+  </si>
+  <si>
+    <t>Find tutorial resources for all group member, so once PO had finished user stories, everyone can start their work smoothly</t>
+  </si>
+  <si>
+    <t>All members are IS in our group, low programming skills</t>
+  </si>
+  <si>
+    <t>Find tutorial resources for all members</t>
+  </si>
+  <si>
+    <t>set up meeting on 14th of March, 2019</t>
+  </si>
+  <si>
+    <t>set up meeting on 7th of March, 2019</t>
+  </si>
+  <si>
+    <t>Client didn't reply our email</t>
+  </si>
+  <si>
+    <t>Research about JWT, dicuss with PO about the current situtation, trying to force PO send more email to client and give user stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client finally reply use, but we have meeting on 14th meeting, need to arrange all documents </t>
+  </si>
+  <si>
+    <t>Remind for meeting, and confirm attendance, meet supervisor</t>
+  </si>
+  <si>
+    <t>Try to contact all new memvbers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -104,9 +176,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,74 +494,341 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5110F84B-4A76-4691-BAAC-19EF87105E41}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.26953125" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.81640625" customWidth="1"/>
+    <col min="3" max="3" width="38.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>43508</v>
+        <v>43527</v>
       </c>
       <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>43528</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>43529</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>43530</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>43531</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>43532</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>43533</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>43534</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>43535</v>
+      </c>
+      <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>43536</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>43537</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>43538</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>43539</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>43540</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>43541</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>43542</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>43543</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>43544</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>43545</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>43546</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>43547</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E23" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F77D7B-6129-408A-97E4-D6E4BEABFA23}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C425CF24-51FA-4C69-AB7B-17BE57201724}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E61702-DFF7-4B34-8B0F-F61FE52D5AF2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979F34B9-AAEA-4EF1-925E-D8A294380CEC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>